--- a/public/template/prixod.xlsx
+++ b/public/template/prixod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U0153\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00250FE-EE80-4CA1-8492-97D794627997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014F98D-AD20-4941-9321-FBB37D1065C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,9 +249,6 @@
     <t>ssd</t>
   </si>
   <si>
-    <t>1, 2, 3 qatorlarga iltimos tegmang</t>
-  </si>
-  <si>
     <t>12212</t>
   </si>
   <si>
@@ -259,13 +256,16 @@
   </si>
   <si>
     <t>debetSubSchet</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4 qatorlarga iltimos tegmang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,12 +280,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Sans Serif"/>
@@ -298,6 +292,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -308,19 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,6 +341,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,42 +475,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -500,60 +489,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,283 +859,283 @@
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="37" style="34" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="37" style="18" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="8" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
     <col min="10" max="10" width="32.42578125" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18" style="39" customWidth="1"/>
-    <col min="16" max="16" width="25" style="18" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="18" style="21" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="8" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" customWidth="1"/>
     <col min="19" max="19" width="19.140625" customWidth="1"/>
     <col min="20" max="20" width="18.5703125" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" ht="120" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="120" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="Q1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>74</v>
+      <c r="A3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="37" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1136,19 +1149,19 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="16">
         <v>154</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1169,17 +1182,17 @@
       <c r="N5" s="3">
         <v>65000</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="19">
         <v>0</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>75</v>
+      <c r="P5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>4</v>
@@ -1187,7 +1200,7 @@
       <c r="T5" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="9">
         <v>122111</v>
       </c>
     </row>
@@ -1201,19 +1214,19 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="16">
         <v>154</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>19</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1234,17 +1247,17 @@
       <c r="N6" s="3">
         <v>80000</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="19">
         <v>10</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="17" t="s">
+      <c r="P6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>75</v>
+      <c r="Q6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>1</v>
@@ -1254,45 +1267,45 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
